--- a/artfynd/A 38162-2025 artfynd.xlsx
+++ b/artfynd/A 38162-2025 artfynd.xlsx
@@ -2241,7 +2241,7 @@
         <v>130782111</v>
       </c>
       <c r="B15" t="n">
-        <v>106675</v>
+        <v>106679</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>130842754</v>
       </c>
       <c r="B16" t="n">
-        <v>106675</v>
+        <v>106679</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/artfynd/A 38162-2025 artfynd.xlsx
+++ b/artfynd/A 38162-2025 artfynd.xlsx
@@ -2241,7 +2241,7 @@
         <v>130782111</v>
       </c>
       <c r="B15" t="n">
-        <v>106679</v>
+        <v>106686</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>130842754</v>
       </c>
       <c r="B16" t="n">
-        <v>106679</v>
+        <v>106686</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/artfynd/A 38162-2025 artfynd.xlsx
+++ b/artfynd/A 38162-2025 artfynd.xlsx
@@ -2241,7 +2241,7 @@
         <v>130782111</v>
       </c>
       <c r="B15" t="n">
-        <v>106686</v>
+        <v>106689</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>130842754</v>
       </c>
       <c r="B16" t="n">
-        <v>106686</v>
+        <v>106689</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/artfynd/A 38162-2025 artfynd.xlsx
+++ b/artfynd/A 38162-2025 artfynd.xlsx
@@ -2343,7 +2343,7 @@
         <v>130842754</v>
       </c>
       <c r="B16" t="n">
-        <v>106689</v>
+        <v>106690</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
